--- a/output/3_Regression/analysis_01/h20/table_rmse_h20.xlsx
+++ b/output/3_Regression/analysis_01/h20/table_rmse_h20.xlsx
@@ -513,13 +513,13 @@
         <v>2.055039705624746</v>
       </c>
       <c r="H2" t="n">
-        <v>5.200925183309237</v>
+        <v>6.076680563609066</v>
       </c>
       <c r="I2" t="n">
-        <v>6.705948921595277</v>
+        <v>2.795996664148175</v>
       </c>
       <c r="J2" t="n">
-        <v>4.202509407340036</v>
+        <v>5.001329565343902</v>
       </c>
       <c r="K2" t="n">
         <v>16.16942928866801</v>
@@ -548,13 +548,13 @@
         <v>1.870163822053013</v>
       </c>
       <c r="H3" t="n">
-        <v>4.78289518081514</v>
+        <v>5.493971066354121</v>
       </c>
       <c r="I3" t="n">
-        <v>7.462683811013642</v>
+        <v>3.580413629269028</v>
       </c>
       <c r="J3" t="n">
-        <v>3.112911368328663</v>
+        <v>5.221436232622355</v>
       </c>
       <c r="K3" t="n">
         <v>15.92965413555815</v>
@@ -583,13 +583,13 @@
         <v>1.809430335960264</v>
       </c>
       <c r="H4" t="n">
-        <v>7.09181936297965</v>
+        <v>7.189751582596553</v>
       </c>
       <c r="I4" t="n">
-        <v>9.411725548145586</v>
+        <v>4.892510997319525</v>
       </c>
       <c r="J4" t="n">
-        <v>3.88301859748632</v>
+        <v>5.255554301337876</v>
       </c>
       <c r="K4" t="n">
         <v>19.33483253538481</v>
@@ -618,13 +618,13 @@
         <v>2.054907280349973</v>
       </c>
       <c r="H5" t="n">
-        <v>4.10856292954311</v>
+        <v>4.158432362484684</v>
       </c>
       <c r="I5" t="n">
-        <v>4.978360650886415</v>
+        <v>2.77463566733582</v>
       </c>
       <c r="J5" t="n">
-        <v>1.983430426680165</v>
+        <v>2.272320349258977</v>
       </c>
       <c r="K5" t="n">
         <v>10.41007891407329</v>
@@ -653,13 +653,13 @@
         <v>1.592778298420643</v>
       </c>
       <c r="H6" t="n">
-        <v>2.086996559116967</v>
+        <v>1.995930319320669</v>
       </c>
       <c r="I6" t="n">
-        <v>2.511465137150848</v>
+        <v>1.321838599406548</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9198013506840454</v>
+        <v>1.066070322949884</v>
       </c>
       <c r="K6" t="n">
         <v>5.27477322302738</v>
@@ -688,13 +688,13 @@
         <v>1.213822624268044</v>
       </c>
       <c r="H7" t="n">
-        <v>1.253664552578069</v>
+        <v>1.202108396425234</v>
       </c>
       <c r="I7" t="n">
-        <v>1.495142797069361</v>
+        <v>0.7886854728881579</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5861964822383078</v>
+        <v>0.7435609064420493</v>
       </c>
       <c r="K7" t="n">
         <v>3.180297082683126</v>
@@ -723,13 +723,13 @@
         <v>0.854124272623448</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8778157597137886</v>
+        <v>0.8407127577305252</v>
       </c>
       <c r="I8" t="n">
-        <v>1.050683585018189</v>
+        <v>0.6242964421419981</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5261609792307773</v>
+        <v>0.6101480224618409</v>
       </c>
       <c r="K8" t="n">
         <v>2.251253166773986</v>
@@ -758,13 +758,13 @@
         <v>0.6946364235320409</v>
       </c>
       <c r="H9" t="n">
-        <v>0.698791329211368</v>
+        <v>0.6572355648725479</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8154313035080478</v>
+        <v>0.5525036874616256</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5587809985117539</v>
+        <v>0.5998050664087264</v>
       </c>
       <c r="K9" t="n">
         <v>1.731594045439817</v>
@@ -793,13 +793,13 @@
         <v>0.6212761781984769</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6026143852441954</v>
+        <v>0.5634163368885166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7245324478796629</v>
+        <v>0.5665274153612152</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5875502884778488</v>
+        <v>0.6387639429980925</v>
       </c>
       <c r="K10" t="n">
         <v>1.499645049228149</v>
@@ -828,13 +828,13 @@
         <v>0.6208645479604573</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5977399324700038</v>
+        <v>0.5756872536616577</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6611326108716097</v>
+        <v>0.5803888219243941</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6818163583010466</v>
+        <v>0.6462024409049486</v>
       </c>
       <c r="K11" t="n">
         <v>1.627636349514908</v>
@@ -863,13 +863,13 @@
         <v>0.6642279684943432</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6109921099287854</v>
+        <v>0.6235758835572404</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6487956293876253</v>
+        <v>0.6083537590242765</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7385872433511845</v>
+        <v>0.6666576539524328</v>
       </c>
       <c r="K12" t="n">
         <v>1.487301817842982</v>
@@ -898,13 +898,13 @@
         <v>0.7820838579713426</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6451308498459686</v>
+        <v>0.7031443781628126</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6608207033853649</v>
+        <v>0.6781192865483066</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8108284789737701</v>
+        <v>0.7031525427349665</v>
       </c>
       <c r="K13" t="n">
         <v>1.283144812878277</v>
